--- a/biology/Neurosciences/Feng_Zhang/Feng_Zhang.xlsx
+++ b/biology/Neurosciences/Feng_Zhang/Feng_Zhang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Feng Zhang, né le 22 octobre 1982, est un neuroscientifique et généticien américain[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Feng Zhang, né le 22 octobre 1982, est un neuroscientifique et généticien américain. 
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est connu pour ses recherches sur l'optogénétique et sur les CRISPR. Il enseigne et dirige ses recherches au Massachusetts Institute of Technology[2]. 
-Il a reçu le prix Gairdner en 2016[3]. Il est également lauréat en 2021 du prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine « pour ses résultats pionniers dans le domaine de l’édition génomique incluant la découverte de nouveaux systèmes CRISPR et leur développement en tant qu’outils moléculaires. »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est connu pour ses recherches sur l'optogénétique et sur les CRISPR. Il enseigne et dirige ses recherches au Massachusetts Institute of Technology. 
+Il a reçu le prix Gairdner en 2016. Il est également lauréat en 2021 du prix Richard Lounsbery de l'Académie des Sciences française et l'Académie nationale des Sciences américaine « pour ses résultats pionniers dans le domaine de l’édition génomique incluant la découverte de nouveaux systèmes CRISPR et leur développement en tant qu’outils moléculaires. ».
 </t>
         </is>
       </c>
